--- a/Персонажи.xlsx
+++ b/Персонажи.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t>Здоровье</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>вор</t>
+  </si>
+  <si>
+    <t>to_attak</t>
+  </si>
+  <si>
+    <t>to_help(принести что-то)</t>
+  </si>
+  <si>
+    <t>to_recharge</t>
   </si>
 </sst>
 </file>
@@ -436,17 +445,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -554,18 +564,6 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -573,63 +571,100 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="E8" s="2" t="s">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>21</v>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
